--- a/Assignment 3 Mobile Testing/Active Data/Document.xlsx
+++ b/Assignment 3 Mobile Testing/Active Data/Document.xlsx
@@ -1,128 +1,80 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\git\assignment-hactiv-indrawan\Active Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\095093\Documents\GitHub\AssignmentKatalonReza\Assignment 3 Mobile Testing\Active Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54C23D6D-D1D9-4366-B259-00C441464FED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{82F883B9-5AAF-2847-A45F-BD9E7C4C725B}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
   </bookViews>
   <sheets>
-    <sheet name="prof" sheetId="1" r:id="rId1"/>
-    <sheet name="Item_order" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
-  <si>
-    <t>Nama</t>
-  </si>
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>HP</t>
-  </si>
-  <si>
-    <t>Alamat</t>
-  </si>
-  <si>
-    <t>Indrawan</t>
-  </si>
-  <si>
-    <t>indrawan@test.com</t>
-  </si>
-  <si>
-    <t>Jl. Buntu no 99</t>
-  </si>
-  <si>
-    <t>081379310489</t>
-  </si>
-  <si>
-    <t>Nirmala</t>
-  </si>
-  <si>
-    <t>nirmala@test.com</t>
-  </si>
-  <si>
-    <t>085721576989</t>
-  </si>
-  <si>
-    <t>Jl. Panjang no 89</t>
-  </si>
-  <si>
-    <t>ACTIVE</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
+  <si>
+    <t>Product</t>
+  </si>
+  <si>
+    <t>quantity</t>
+  </si>
+  <si>
+    <t>keyword</t>
+  </si>
+  <si>
+    <t>ORDER</t>
+  </si>
+  <si>
+    <t>Samsung Galaxy S10 - Black</t>
+  </si>
+  <si>
+    <t>Samsung</t>
   </si>
   <si>
     <t>Y</t>
   </si>
   <si>
-    <t>Product</t>
-  </si>
-  <si>
-    <t>quantity</t>
-  </si>
-  <si>
-    <t>keyword</t>
-  </si>
-  <si>
-    <t>Samsung Galaxy S10 - Black</t>
-  </si>
-  <si>
     <t>Animal Jumpsuit for Newborn Baby</t>
   </si>
   <si>
+    <t>Jumpsuit</t>
+  </si>
+  <si>
     <t>Nike Magista Obra II Club TF</t>
   </si>
   <si>
-    <t>Samsung</t>
-  </si>
-  <si>
     <t>Nike</t>
   </si>
   <si>
-    <t>Jumpsuit</t>
+    <t xml:space="preserve">Hybrid Stroller Cabi Sport Rosse Gold </t>
   </si>
   <si>
     <t>Stroller</t>
-  </si>
-  <si>
-    <t>ORDER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hybrid Stroller Cabi Sport Rosse Gold </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0;[Red]0"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -131,14 +83,6 @@
     <font>
       <sz val="16"/>
       <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -167,21 +111,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -214,7 +155,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -226,7 +167,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -273,23 +214,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -325,23 +249,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -493,165 +400,83 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92D17FA4-86BF-944F-8333-C6D708F59A06}">
-  <dimension ref="A1:E3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="26.69921875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38.796875" customWidth="1"/>
-    <col min="4" max="4" width="49.19921875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{B0F0BC20-47DC-D843-99C2-138B5DD6FE53}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{375F0CA4-1006-834D-93F3-A21CB436E76A}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5666F31E-6A1B-41C8-B4CD-C940C69F1F94}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection sqref="A1:D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="49.09765625" customWidth="1"/>
-    <col min="2" max="2" width="28.296875" customWidth="1"/>
-    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.8984375" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>24</v>
+        <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="B2">
         <v>2</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>20</v>
+      <c r="C2" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
